--- a/outputs/regressions/B1_all_incomes_gdp_adjusted_tables.xlsx
+++ b/outputs/regressions/B1_all_incomes_gdp_adjusted_tables.xlsx
@@ -4185,7 +4185,7 @@
         <v>1.845145572516816</v>
       </c>
       <c r="C3">
-        <v>0.3740000000000001</v>
+        <v>0.3620000000000001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
